--- a/prep/data/DISTRIBUCION_COHORTES.xlsx
+++ b/prep/data/DISTRIBUCION_COHORTES.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87261399-1A3C-4B55-9F2C-B5D86BFA12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Characterization of HIV Preexposure Prophylaxis Use Behaviors
 and HIV Incidence Among US Adults in an Integrated Health Care System</t>
@@ -92,17 +104,28 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Prevalencia Inicial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,17 +256,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -267,6 +281,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,43 +576,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H6" sqref="H6:H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,7 +629,7 @@
         <v>2.4770508523969111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -614,7 +645,7 @@
         <v>3.8977123706833747E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -629,12 +660,16 @@
         <f>C5/10</f>
         <v>2.1200641119044149E-2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -649,426 +684,912 @@
         <f>C6/5</f>
         <v>4.0011656709893637E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>18</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>SUM(B3:B6)</f>
         <v>13726</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>19</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="6">
+      <c r="I7" s="3">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
         <v>20</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <v>17</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>21</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>22</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <v>19</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>23</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <f>C9*C10*C11</f>
         <v>0.86514199999999997</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>24</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="6">
+      <c r="I12" s="3">
+        <v>21</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
         <v>25</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>2.4770508523969111E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="8"/>
-      <c r="G14" s="6">
+      <c r="I13" s="3">
+        <v>22</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="G14" s="3">
         <v>26</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="6">
+      <c r="I14" s="3">
+        <v>23</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
         <v>27</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="8"/>
-      <c r="G16" s="6">
+      <c r="I15" s="3">
+        <v>24</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="G16" s="3">
         <v>28</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="6">
+      <c r="I16" s="3">
+        <v>25</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
         <v>29</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="6">
+      <c r="I17" s="3">
+        <v>26</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
         <v>30</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="6">
+      <c r="I18" s="3">
+        <v>27</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
         <v>31</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="6">
+      <c r="I19" s="3">
+        <v>28</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
         <v>32</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="6">
+      <c r="I20" s="3">
+        <v>29</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
         <v>33</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G22" s="6">
+      <c r="I21" s="3">
+        <v>30</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
         <v>34</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="6">
+      <c r="I22" s="3">
+        <v>31</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
         <v>35</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>3.8977123706833747E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="6">
+      <c r="I23" s="3">
+        <v>32</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
         <v>36</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G25" s="6">
+      <c r="I24" s="3">
+        <v>33</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
         <v>37</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="3">
+        <v>34</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>38</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="3">
+        <v>35</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>39</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="3">
+        <v>36</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>40</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
+      <c r="I28" s="3">
+        <v>37</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="6">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="3">
         <v>41</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="I29" s="3">
+        <v>38</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>123</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <f>B30/B$33</f>
         <v>0.33791208791208793</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="6">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="3">
         <v>42</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="I30" s="3">
+        <v>39</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>127</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <f>B31/B$33</f>
         <v>0.34890109890109888</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="6">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="3">
         <v>43</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="I31" s="3">
+        <v>40</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>114</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <f>B32/B$33</f>
         <v>0.31318681318681318</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="6">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="3">
         <v>44</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="I32" s="3">
+        <v>41</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B33">
         <f>SUM(B30:B32)</f>
         <v>364</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="3">
         <v>45</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <v>2.1200641119044149E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G34" s="6">
+      <c r="I33" s="3">
+        <v>42</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
         <v>46</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="4">
         <v>4.0011656709893637E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="I34" s="3">
+        <v>43</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>43</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <f>B35/B$39</f>
         <v>0.11813186813186813</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="3">
         <v>47</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="4">
         <v>4.0011656709893637E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="I35" s="3">
+        <v>44</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>187</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <f>B36/B$39</f>
         <v>0.51373626373626369</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="3">
         <v>48</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="4">
         <v>4.0011656709893637E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="I36" s="3">
+        <v>45</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>129</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <f>B37/B$39</f>
         <v>0.35439560439560441</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="3">
         <v>49</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="4">
         <v>4.0011656709893637E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="I37" s="3">
+        <v>46</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>5</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <f>B38/B$39</f>
         <v>1.3736263736263736E-2</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="12">
         <v>50</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="13">
         <v>4.0011656709893637E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="I38" s="3">
+        <v>47</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="8">
         <f>SUM(B35:B38)</f>
         <v>364</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="G39" s="17" t="s">
+      <c r="C39" s="8"/>
+      <c r="G39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="15">
         <f>SUM(H6:H38)</f>
         <v>1.0000000000000002</v>
       </c>
+      <c r="I39" s="3">
+        <v>48</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="3">
+        <v>49</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="3">
+        <v>50</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="3">
+        <v>51</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <v>52</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="3">
+        <v>53</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="3">
+        <v>54</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="3">
+        <v>55</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="12">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
